--- a/engine_usd_gbp.xlsx
+++ b/engine_usd_gbp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="13920" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="13920" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument Properties" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="76">
   <si>
     <t>3M</t>
   </si>
@@ -688,27 +688,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="13"/>
+    <col min="1" max="1" width="39.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -772,8 +772,9 @@
       <c r="G2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>51</v>
+      <c r="H2" s="8" t="str">
+        <f t="shared" ref="H2:H15" si="0">B2</f>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>51</v>
@@ -811,8 +812,9 @@
       <c r="G3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>51</v>
+      <c r="H3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>51</v>
@@ -829,7 +831,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="8" t="str">
-        <f t="shared" ref="A4:A15" si="0">CONCATENATE(B4,"__Future__",J4,"_",K4)</f>
+        <f t="shared" ref="A4:A15" si="1">CONCATENATE(B4,"__Future__",J4,"_",K4)</f>
         <v>USDLIBOR3M__Future__2F_3M</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -850,8 +852,9 @@
       <c r="G4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>51</v>
+      <c r="H4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>51</v>
@@ -868,7 +871,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__3F_3M</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -889,8 +892,9 @@
       <c r="G5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>51</v>
+      <c r="H5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>51</v>
@@ -907,7 +911,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__4F_3M</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -928,8 +932,9 @@
       <c r="G6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>51</v>
+      <c r="H6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>51</v>
@@ -946,7 +951,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__5F_3M</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -967,8 +972,9 @@
       <c r="G7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>51</v>
+      <c r="H7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>51</v>
@@ -985,7 +991,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__6F_3M</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1006,8 +1012,9 @@
       <c r="G8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>51</v>
+      <c r="H8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>51</v>
@@ -1024,7 +1031,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__7F_3M</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1045,8 +1052,9 @@
       <c r="G9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>51</v>
+      <c r="H9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>51</v>
@@ -1063,7 +1071,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__8F_3M</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1084,8 +1092,9 @@
       <c r="G10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>51</v>
+      <c r="H10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>51</v>
@@ -1102,7 +1111,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__9F_3M</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1123,8 +1132,9 @@
       <c r="G11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>51</v>
+      <c r="H11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>51</v>
@@ -1141,7 +1151,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__10F_3M</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1162,8 +1172,9 @@
       <c r="G12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>51</v>
+      <c r="H12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>51</v>
@@ -1180,7 +1191,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__11F_3M</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1201,8 +1212,9 @@
       <c r="G13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>51</v>
+      <c r="H13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>51</v>
@@ -1219,7 +1231,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__12F_3M</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1240,8 +1252,9 @@
       <c r="G14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>51</v>
+      <c r="H14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>51</v>
@@ -1258,7 +1271,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__13F_3M</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1279,8 +1292,9 @@
       <c r="G15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>51</v>
+      <c r="H15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>51</v>
@@ -1337,7 +1351,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="str">
-        <f t="shared" ref="A17:A40" si="1">CONCATENATE(B17,"__Swap__",K17)</f>
+        <f t="shared" ref="A17:A40" si="2">CONCATENATE(B17,"__Swap__",K17)</f>
         <v>USDLIBOR3M__Swap__5Y</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1359,7 +1373,7 @@
         <v>51</v>
       </c>
       <c r="H17" s="8" t="str">
-        <f t="shared" ref="H17:H40" si="2">B17</f>
+        <f t="shared" ref="H17:H40" si="3">B17</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -1377,7 +1391,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__6Y</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1399,7 +1413,7 @@
         <v>51</v>
       </c>
       <c r="H18" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -1417,7 +1431,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__7Y</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1439,7 +1453,7 @@
         <v>51</v>
       </c>
       <c r="H19" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -1457,7 +1471,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__8Y</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1479,7 +1493,7 @@
         <v>51</v>
       </c>
       <c r="H20" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -1497,7 +1511,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__9Y</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1519,7 +1533,7 @@
         <v>51</v>
       </c>
       <c r="H21" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -1537,7 +1551,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__10Y</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1559,7 +1573,7 @@
         <v>51</v>
       </c>
       <c r="H22" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -1577,7 +1591,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__11Y</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1599,7 +1613,7 @@
         <v>51</v>
       </c>
       <c r="H23" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I23" s="8" t="s">
@@ -1617,7 +1631,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__12Y</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1639,7 +1653,7 @@
         <v>51</v>
       </c>
       <c r="H24" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -1657,7 +1671,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__13Y</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1679,7 +1693,7 @@
         <v>51</v>
       </c>
       <c r="H25" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -1697,7 +1711,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__14Y</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1719,7 +1733,7 @@
         <v>51</v>
       </c>
       <c r="H26" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I26" s="8" t="s">
@@ -1737,7 +1751,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__15Y</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1759,7 +1773,7 @@
         <v>51</v>
       </c>
       <c r="H27" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -1777,7 +1791,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__16Y</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -1799,7 +1813,7 @@
         <v>51</v>
       </c>
       <c r="H28" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I28" s="8" t="s">
@@ -1817,7 +1831,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__17Y</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -1839,7 +1853,7 @@
         <v>51</v>
       </c>
       <c r="H29" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I29" s="8" t="s">
@@ -1857,7 +1871,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__18Y</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1879,7 +1893,7 @@
         <v>51</v>
       </c>
       <c r="H30" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I30" s="8" t="s">
@@ -1897,7 +1911,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__19Y</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -1919,7 +1933,7 @@
         <v>51</v>
       </c>
       <c r="H31" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I31" s="8" t="s">
@@ -1937,7 +1951,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__20Y</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -1959,7 +1973,7 @@
         <v>51</v>
       </c>
       <c r="H32" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I32" s="8" t="s">
@@ -1977,7 +1991,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__25Y</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1999,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="H33" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I33" s="8" t="s">
@@ -2017,7 +2031,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__30Y</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -2039,7 +2053,7 @@
         <v>51</v>
       </c>
       <c r="H34" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I34" s="8" t="s">
@@ -2057,7 +2071,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__35Y</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -2079,7 +2093,7 @@
         <v>51</v>
       </c>
       <c r="H35" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I35" s="8" t="s">
@@ -2097,7 +2111,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__40Y</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -2119,7 +2133,7 @@
         <v>51</v>
       </c>
       <c r="H36" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I36" s="8" t="s">
@@ -2137,7 +2151,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__45Y</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -2159,7 +2173,7 @@
         <v>51</v>
       </c>
       <c r="H37" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I37" s="8" t="s">
@@ -2177,7 +2191,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__50Y</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -2199,7 +2213,7 @@
         <v>51</v>
       </c>
       <c r="H38" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I38" s="8" t="s">
@@ -2217,7 +2231,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__60Y</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -2239,7 +2253,7 @@
         <v>51</v>
       </c>
       <c r="H39" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I39" s="8" t="s">
@@ -2257,7 +2271,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M__Swap__70Y</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -2279,7 +2293,7 @@
         <v>51</v>
       </c>
       <c r="H40" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I40" s="8" t="s">
@@ -2336,7 +2350,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="9" t="str">
-        <f t="shared" ref="A42:A73" si="3">CONCATENATE(B42,"__TermDeposit__",K42)</f>
+        <f t="shared" ref="A42:A73" si="4">CONCATENATE(B42,"__TermDeposit__",K42)</f>
         <v>USD-USDOIS__TermDeposit__1M</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -2375,7 +2389,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__2M</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -2414,7 +2428,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__3M</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -2453,7 +2467,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__6M</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -2492,7 +2506,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__1Y</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -2531,7 +2545,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__2Y</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -2570,7 +2584,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__3Y</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -2609,7 +2623,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__4Y</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -2648,7 +2662,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__5Y</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -2687,7 +2701,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__6Y</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -2726,7 +2740,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__7Y</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -2765,7 +2779,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__8Y</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -2804,7 +2818,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__9Y</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -2843,7 +2857,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__10Y</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -2882,7 +2896,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__11Y</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -2921,7 +2935,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__12Y</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -2960,7 +2974,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__13Y</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -2999,7 +3013,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__14Y</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -3038,7 +3052,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__15Y</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -3077,7 +3091,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__16Y</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -3116,7 +3130,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__17Y</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -3155,7 +3169,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__18Y</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -3194,7 +3208,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__19Y</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -3233,7 +3247,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__20Y</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -3272,7 +3286,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__25Y</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -3311,7 +3325,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__30Y</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -3350,7 +3364,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__35Y</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -3389,7 +3403,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__40Y</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -3428,7 +3442,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__45Y</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -3467,7 +3481,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__50Y</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -3506,7 +3520,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__60Y</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -3545,7 +3559,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USD-USDOIS__TermDeposit__70Y</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -3625,7 +3639,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="7" t="str">
-        <f t="shared" ref="A75:A103" si="4">CONCATENATE(B75,"__BasisSwap__",K75)</f>
+        <f t="shared" ref="A75:A103" si="5">CONCATENATE(B75,"__BasisSwap__",K75)</f>
         <v>USDLIBOR6M__BasisSwap__6M</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -3647,11 +3661,11 @@
         <v>51</v>
       </c>
       <c r="H75" s="7" t="str">
-        <f t="shared" ref="H75:H133" si="5">D75</f>
+        <f t="shared" ref="H75:H133" si="6">D75</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I75" s="7" t="str">
-        <f t="shared" ref="I75:I133" si="6">E75</f>
+        <f t="shared" ref="I75:I133" si="7">E75</f>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J75" s="7" t="s">
@@ -3666,7 +3680,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__1Y</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -3688,11 +3702,11 @@
         <v>51</v>
       </c>
       <c r="H76" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I76" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J76" s="7" t="s">
@@ -3707,7 +3721,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__2Y</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -3729,11 +3743,11 @@
         <v>51</v>
       </c>
       <c r="H77" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I77" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J77" s="7" t="s">
@@ -3748,7 +3762,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__3Y</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -3770,11 +3784,11 @@
         <v>51</v>
       </c>
       <c r="H78" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I78" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J78" s="7" t="s">
@@ -3789,7 +3803,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__4Y</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -3811,11 +3825,11 @@
         <v>51</v>
       </c>
       <c r="H79" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I79" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J79" s="7" t="s">
@@ -3830,7 +3844,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__5Y</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -3852,11 +3866,11 @@
         <v>51</v>
       </c>
       <c r="H80" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I80" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J80" s="7" t="s">
@@ -3871,7 +3885,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__6Y</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -3893,11 +3907,11 @@
         <v>51</v>
       </c>
       <c r="H81" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I81" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J81" s="7" t="s">
@@ -3912,7 +3926,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__7Y</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -3934,11 +3948,11 @@
         <v>51</v>
       </c>
       <c r="H82" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I82" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J82" s="7" t="s">
@@ -3953,7 +3967,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__8Y</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -3975,11 +3989,11 @@
         <v>51</v>
       </c>
       <c r="H83" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I83" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J83" s="7" t="s">
@@ -3994,7 +4008,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__9Y</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -4016,11 +4030,11 @@
         <v>51</v>
       </c>
       <c r="H84" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I84" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J84" s="7" t="s">
@@ -4035,7 +4049,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__10Y</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -4057,11 +4071,11 @@
         <v>51</v>
       </c>
       <c r="H85" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I85" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J85" s="7" t="s">
@@ -4076,7 +4090,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__11Y</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -4098,11 +4112,11 @@
         <v>51</v>
       </c>
       <c r="H86" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I86" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J86" s="7" t="s">
@@ -4117,7 +4131,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__12Y</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -4139,11 +4153,11 @@
         <v>51</v>
       </c>
       <c r="H87" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I87" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J87" s="7" t="s">
@@ -4158,7 +4172,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__13Y</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -4180,11 +4194,11 @@
         <v>51</v>
       </c>
       <c r="H88" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I88" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J88" s="7" t="s">
@@ -4199,7 +4213,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__14Y</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -4221,11 +4235,11 @@
         <v>51</v>
       </c>
       <c r="H89" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I89" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J89" s="7" t="s">
@@ -4240,7 +4254,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__15Y</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -4262,11 +4276,11 @@
         <v>51</v>
       </c>
       <c r="H90" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I90" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J90" s="7" t="s">
@@ -4281,7 +4295,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__16Y</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -4303,11 +4317,11 @@
         <v>51</v>
       </c>
       <c r="H91" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I91" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J91" s="7" t="s">
@@ -4322,7 +4336,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__17Y</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -4344,11 +4358,11 @@
         <v>51</v>
       </c>
       <c r="H92" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I92" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J92" s="7" t="s">
@@ -4363,7 +4377,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__18Y</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -4385,11 +4399,11 @@
         <v>51</v>
       </c>
       <c r="H93" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I93" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J93" s="7" t="s">
@@ -4404,7 +4418,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__19Y</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -4426,11 +4440,11 @@
         <v>51</v>
       </c>
       <c r="H94" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I94" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J94" s="7" t="s">
@@ -4445,7 +4459,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__20Y</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -4467,11 +4481,11 @@
         <v>51</v>
       </c>
       <c r="H95" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I95" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J95" s="7" t="s">
@@ -4486,7 +4500,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__25Y</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -4508,11 +4522,11 @@
         <v>51</v>
       </c>
       <c r="H96" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I96" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J96" s="7" t="s">
@@ -4527,7 +4541,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__30Y</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -4549,11 +4563,11 @@
         <v>51</v>
       </c>
       <c r="H97" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I97" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J97" s="7" t="s">
@@ -4568,7 +4582,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__35Y</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -4590,11 +4604,11 @@
         <v>51</v>
       </c>
       <c r="H98" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I98" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J98" s="7" t="s">
@@ -4609,7 +4623,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__40Y</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -4631,11 +4645,11 @@
         <v>51</v>
       </c>
       <c r="H99" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I99" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J99" s="7" t="s">
@@ -4650,7 +4664,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__45Y</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -4672,11 +4686,11 @@
         <v>51</v>
       </c>
       <c r="H100" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I100" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J100" s="7" t="s">
@@ -4691,7 +4705,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__50Y</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -4713,11 +4727,11 @@
         <v>51</v>
       </c>
       <c r="H101" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I101" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J101" s="7" t="s">
@@ -4732,7 +4746,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__60Y</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -4754,11 +4768,11 @@
         <v>51</v>
       </c>
       <c r="H102" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I102" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J102" s="7" t="s">
@@ -4773,7 +4787,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR6M__BasisSwap__70Y</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -4795,11 +4809,11 @@
         <v>51</v>
       </c>
       <c r="H103" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I103" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J103" s="7" t="s">
@@ -4836,11 +4850,11 @@
         <v>51</v>
       </c>
       <c r="H104" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I104" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J104" s="6" t="s">
@@ -4855,7 +4869,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="6" t="str">
-        <f t="shared" ref="A105:A108" si="7">CONCATENATE(B105,"__BasisSwap__",K105)</f>
+        <f t="shared" ref="A105:A108" si="8">CONCATENATE(B105,"__BasisSwap__",K105)</f>
         <v>USDLIBOR12M__BasisSwap__6M</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -4877,11 +4891,11 @@
         <v>51</v>
       </c>
       <c r="H105" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I105" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J105" s="6" t="s">
@@ -4896,7 +4910,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR12M__BasisSwap__1Y</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -4918,11 +4932,11 @@
         <v>51</v>
       </c>
       <c r="H106" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I106" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J106" s="6" t="s">
@@ -4937,7 +4951,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR12M__BasisSwap__2Y</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -4959,11 +4973,11 @@
         <v>51</v>
       </c>
       <c r="H107" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I107" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J107" s="6" t="s">
@@ -4978,7 +4992,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR12M__BasisSwap__3Y</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -5000,11 +5014,11 @@
         <v>51</v>
       </c>
       <c r="H108" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I108" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J108" s="6" t="s">
@@ -5041,11 +5055,11 @@
         <v>51</v>
       </c>
       <c r="H109" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I109" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J109" s="6" t="s">
@@ -5060,7 +5074,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="6" t="str">
-        <f t="shared" ref="A110:A133" si="8">CONCATENATE(B110,"__BasisSwap__",K110)</f>
+        <f t="shared" ref="A110:A133" si="9">CONCATENATE(B110,"__BasisSwap__",K110)</f>
         <v>USDLIBOR12M__BasisSwap__5Y</v>
       </c>
       <c r="B110" s="6" t="s">
@@ -5082,11 +5096,11 @@
         <v>51</v>
       </c>
       <c r="H110" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I110" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J110" s="6" t="s">
@@ -5101,7 +5115,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__6Y</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -5123,11 +5137,11 @@
         <v>51</v>
       </c>
       <c r="H111" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I111" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J111" s="6" t="s">
@@ -5142,7 +5156,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__7Y</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -5164,11 +5178,11 @@
         <v>51</v>
       </c>
       <c r="H112" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I112" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J112" s="6" t="s">
@@ -5183,7 +5197,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__8Y</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -5205,11 +5219,11 @@
         <v>51</v>
       </c>
       <c r="H113" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I113" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J113" s="6" t="s">
@@ -5224,7 +5238,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__9Y</v>
       </c>
       <c r="B114" s="6" t="s">
@@ -5246,11 +5260,11 @@
         <v>51</v>
       </c>
       <c r="H114" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I114" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J114" s="6" t="s">
@@ -5265,7 +5279,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__10Y</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -5287,11 +5301,11 @@
         <v>51</v>
       </c>
       <c r="H115" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I115" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J115" s="6" t="s">
@@ -5306,7 +5320,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__11Y</v>
       </c>
       <c r="B116" s="6" t="s">
@@ -5328,11 +5342,11 @@
         <v>51</v>
       </c>
       <c r="H116" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I116" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J116" s="6" t="s">
@@ -5347,7 +5361,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__12Y</v>
       </c>
       <c r="B117" s="6" t="s">
@@ -5369,11 +5383,11 @@
         <v>51</v>
       </c>
       <c r="H117" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I117" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J117" s="6" t="s">
@@ -5388,7 +5402,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__13Y</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -5410,11 +5424,11 @@
         <v>51</v>
       </c>
       <c r="H118" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I118" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J118" s="6" t="s">
@@ -5429,7 +5443,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__14Y</v>
       </c>
       <c r="B119" s="6" t="s">
@@ -5451,11 +5465,11 @@
         <v>51</v>
       </c>
       <c r="H119" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I119" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J119" s="6" t="s">
@@ -5470,7 +5484,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__15Y</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -5492,11 +5506,11 @@
         <v>51</v>
       </c>
       <c r="H120" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I120" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J120" s="6" t="s">
@@ -5511,7 +5525,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__16Y</v>
       </c>
       <c r="B121" s="6" t="s">
@@ -5533,11 +5547,11 @@
         <v>51</v>
       </c>
       <c r="H121" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I121" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J121" s="6" t="s">
@@ -5552,7 +5566,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__17Y</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -5574,11 +5588,11 @@
         <v>51</v>
       </c>
       <c r="H122" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I122" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J122" s="6" t="s">
@@ -5593,7 +5607,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__18Y</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -5615,11 +5629,11 @@
         <v>51</v>
       </c>
       <c r="H123" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I123" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J123" s="6" t="s">
@@ -5634,7 +5648,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__19Y</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -5656,11 +5670,11 @@
         <v>51</v>
       </c>
       <c r="H124" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I124" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J124" s="6" t="s">
@@ -5675,7 +5689,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__20Y</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -5697,11 +5711,11 @@
         <v>51</v>
       </c>
       <c r="H125" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I125" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J125" s="6" t="s">
@@ -5716,7 +5730,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__25Y</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -5738,11 +5752,11 @@
         <v>51</v>
       </c>
       <c r="H126" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I126" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J126" s="6" t="s">
@@ -5757,7 +5771,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__30Y</v>
       </c>
       <c r="B127" s="6" t="s">
@@ -5779,11 +5793,11 @@
         <v>51</v>
       </c>
       <c r="H127" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I127" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J127" s="6" t="s">
@@ -5798,7 +5812,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__35Y</v>
       </c>
       <c r="B128" s="6" t="s">
@@ -5820,11 +5834,11 @@
         <v>51</v>
       </c>
       <c r="H128" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I128" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J128" s="6" t="s">
@@ -5839,7 +5853,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__40Y</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -5861,11 +5875,11 @@
         <v>51</v>
       </c>
       <c r="H129" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I129" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J129" s="6" t="s">
@@ -5880,7 +5894,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__45Y</v>
       </c>
       <c r="B130" s="6" t="s">
@@ -5902,11 +5916,11 @@
         <v>51</v>
       </c>
       <c r="H130" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I130" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J130" s="6" t="s">
@@ -5921,7 +5935,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__50Y</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -5943,11 +5957,11 @@
         <v>51</v>
       </c>
       <c r="H131" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I131" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J131" s="6" t="s">
@@ -5962,7 +5976,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__60Y</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -5984,11 +5998,11 @@
         <v>51</v>
       </c>
       <c r="H132" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I132" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J132" s="6" t="s">
@@ -6003,7 +6017,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>USDLIBOR12M__BasisSwap__70Y</v>
       </c>
       <c r="B133" s="6" t="s">
@@ -6025,11 +6039,11 @@
         <v>51</v>
       </c>
       <c r="H133" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I133" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR12M</v>
       </c>
       <c r="J133" s="6" t="s">
@@ -6085,7 +6099,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="10" t="str">
-        <f t="shared" ref="A135:A163" si="9">CONCATENATE(B135,"__",C135,"__",K135)</f>
+        <f t="shared" ref="A135:A163" si="10">CONCATENATE(B135,"__",C135,"__",K135)</f>
         <v>GBP-USDOIS__CrossCurrencySwap__6M</v>
       </c>
       <c r="B135" s="10" t="s">
@@ -6107,11 +6121,11 @@
         <v>68</v>
       </c>
       <c r="H135" s="10" t="str">
-        <f t="shared" ref="H135:H163" si="10">D135</f>
+        <f t="shared" ref="H135:H163" si="11">D135</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I135" s="10" t="str">
-        <f t="shared" ref="I135:I163" si="11">H135</f>
+        <f t="shared" ref="I135:I163" si="12">H135</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J135" s="10" t="s">
@@ -6126,7 +6140,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__1Y</v>
       </c>
       <c r="B136" s="10" t="s">
@@ -6148,11 +6162,11 @@
         <v>68</v>
       </c>
       <c r="H136" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I136" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J136" s="10" t="s">
@@ -6167,7 +6181,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__2Y</v>
       </c>
       <c r="B137" s="10" t="s">
@@ -6189,11 +6203,11 @@
         <v>68</v>
       </c>
       <c r="H137" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I137" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J137" s="10" t="s">
@@ -6208,7 +6222,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__3Y</v>
       </c>
       <c r="B138" s="10" t="s">
@@ -6230,11 +6244,11 @@
         <v>68</v>
       </c>
       <c r="H138" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I138" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J138" s="10" t="s">
@@ -6249,7 +6263,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__4Y</v>
       </c>
       <c r="B139" s="10" t="s">
@@ -6271,11 +6285,11 @@
         <v>68</v>
       </c>
       <c r="H139" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I139" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J139" s="10" t="s">
@@ -6290,7 +6304,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__5Y</v>
       </c>
       <c r="B140" s="10" t="s">
@@ -6312,11 +6326,11 @@
         <v>68</v>
       </c>
       <c r="H140" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I140" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J140" s="10" t="s">
@@ -6331,7 +6345,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__6Y</v>
       </c>
       <c r="B141" s="10" t="s">
@@ -6353,11 +6367,11 @@
         <v>68</v>
       </c>
       <c r="H141" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I141" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J141" s="10" t="s">
@@ -6372,7 +6386,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__7Y</v>
       </c>
       <c r="B142" s="10" t="s">
@@ -6394,11 +6408,11 @@
         <v>68</v>
       </c>
       <c r="H142" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I142" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J142" s="10" t="s">
@@ -6413,7 +6427,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__8Y</v>
       </c>
       <c r="B143" s="10" t="s">
@@ -6435,11 +6449,11 @@
         <v>68</v>
       </c>
       <c r="H143" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I143" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J143" s="10" t="s">
@@ -6454,7 +6468,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__9Y</v>
       </c>
       <c r="B144" s="10" t="s">
@@ -6476,11 +6490,11 @@
         <v>68</v>
       </c>
       <c r="H144" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I144" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J144" s="10" t="s">
@@ -6495,7 +6509,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__10Y</v>
       </c>
       <c r="B145" s="10" t="s">
@@ -6517,11 +6531,11 @@
         <v>68</v>
       </c>
       <c r="H145" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I145" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J145" s="10" t="s">
@@ -6536,7 +6550,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__11Y</v>
       </c>
       <c r="B146" s="10" t="s">
@@ -6558,11 +6572,11 @@
         <v>68</v>
       </c>
       <c r="H146" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I146" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J146" s="10" t="s">
@@ -6577,7 +6591,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__12Y</v>
       </c>
       <c r="B147" s="10" t="s">
@@ -6599,11 +6613,11 @@
         <v>68</v>
       </c>
       <c r="H147" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I147" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J147" s="10" t="s">
@@ -6618,7 +6632,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__13Y</v>
       </c>
       <c r="B148" s="10" t="s">
@@ -6640,11 +6654,11 @@
         <v>68</v>
       </c>
       <c r="H148" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I148" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J148" s="10" t="s">
@@ -6659,7 +6673,7 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__14Y</v>
       </c>
       <c r="B149" s="10" t="s">
@@ -6681,11 +6695,11 @@
         <v>68</v>
       </c>
       <c r="H149" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I149" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J149" s="10" t="s">
@@ -6700,7 +6714,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__15Y</v>
       </c>
       <c r="B150" s="10" t="s">
@@ -6722,11 +6736,11 @@
         <v>68</v>
       </c>
       <c r="H150" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I150" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J150" s="10" t="s">
@@ -6741,7 +6755,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__16Y</v>
       </c>
       <c r="B151" s="10" t="s">
@@ -6763,11 +6777,11 @@
         <v>68</v>
       </c>
       <c r="H151" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I151" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J151" s="10" t="s">
@@ -6782,7 +6796,7 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__17Y</v>
       </c>
       <c r="B152" s="10" t="s">
@@ -6804,11 +6818,11 @@
         <v>68</v>
       </c>
       <c r="H152" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I152" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J152" s="10" t="s">
@@ -6823,7 +6837,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__18Y</v>
       </c>
       <c r="B153" s="10" t="s">
@@ -6845,11 +6859,11 @@
         <v>68</v>
       </c>
       <c r="H153" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I153" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J153" s="10" t="s">
@@ -6864,7 +6878,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__19Y</v>
       </c>
       <c r="B154" s="10" t="s">
@@ -6886,11 +6900,11 @@
         <v>68</v>
       </c>
       <c r="H154" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I154" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J154" s="10" t="s">
@@ -6905,7 +6919,7 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__20Y</v>
       </c>
       <c r="B155" s="10" t="s">
@@ -6927,11 +6941,11 @@
         <v>68</v>
       </c>
       <c r="H155" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I155" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J155" s="10" t="s">
@@ -6946,7 +6960,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__25Y</v>
       </c>
       <c r="B156" s="10" t="s">
@@ -6968,11 +6982,11 @@
         <v>68</v>
       </c>
       <c r="H156" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I156" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J156" s="10" t="s">
@@ -6987,7 +7001,7 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__30Y</v>
       </c>
       <c r="B157" s="10" t="s">
@@ -7009,11 +7023,11 @@
         <v>68</v>
       </c>
       <c r="H157" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I157" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J157" s="10" t="s">
@@ -7028,7 +7042,7 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__35Y</v>
       </c>
       <c r="B158" s="10" t="s">
@@ -7050,11 +7064,11 @@
         <v>68</v>
       </c>
       <c r="H158" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I158" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J158" s="10" t="s">
@@ -7069,7 +7083,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__40Y</v>
       </c>
       <c r="B159" s="10" t="s">
@@ -7091,11 +7105,11 @@
         <v>68</v>
       </c>
       <c r="H159" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I159" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J159" s="10" t="s">
@@ -7110,7 +7124,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__45Y</v>
       </c>
       <c r="B160" s="10" t="s">
@@ -7132,11 +7146,11 @@
         <v>68</v>
       </c>
       <c r="H160" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I160" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J160" s="10" t="s">
@@ -7151,7 +7165,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__50Y</v>
       </c>
       <c r="B161" s="10" t="s">
@@ -7173,11 +7187,11 @@
         <v>68</v>
       </c>
       <c r="H161" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I161" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J161" s="10" t="s">
@@ -7192,7 +7206,7 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__60Y</v>
       </c>
       <c r="B162" s="10" t="s">
@@ -7214,11 +7228,11 @@
         <v>68</v>
       </c>
       <c r="H162" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I162" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J162" s="10" t="s">
@@ -7233,7 +7247,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>GBP-USDOIS__CrossCurrencySwap__70Y</v>
       </c>
       <c r="B163" s="10" t="s">
@@ -7255,11 +7269,11 @@
         <v>68</v>
       </c>
       <c r="H163" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I163" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J163" s="10" t="s">
@@ -7324,7 +7338,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="11" t="str">
-        <f t="shared" ref="D165:D202" si="12">B165</f>
+        <f t="shared" ref="D165:D202" si="13">B165</f>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E165" s="11" t="s">
@@ -7354,7 +7368,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="11" t="str">
-        <f t="shared" ref="A166:A177" si="13">CONCATENATE(B165,"__Future__",J166,"_",K166)</f>
+        <f t="shared" ref="A166:A177" si="14">CONCATENATE(B165,"__Future__",J166,"_",K166)</f>
         <v>GBPLIBOR3M__Future__2F_3M</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -7364,7 +7378,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E166" s="11" t="s">
@@ -7394,7 +7408,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Future__3F_3M</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -7404,7 +7418,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E167" s="11" t="s">
@@ -7434,7 +7448,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Future__4F_3M</v>
       </c>
       <c r="B168" s="11" t="s">
@@ -7444,7 +7458,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E168" s="11" t="s">
@@ -7474,7 +7488,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Future__5F_3M</v>
       </c>
       <c r="B169" s="11" t="s">
@@ -7484,7 +7498,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E169" s="11" t="s">
@@ -7514,7 +7528,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Future__6F_3M</v>
       </c>
       <c r="B170" s="11" t="s">
@@ -7524,7 +7538,7 @@
         <v>2</v>
       </c>
       <c r="D170" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E170" s="11" t="s">
@@ -7554,7 +7568,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Future__7F_3M</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -7564,7 +7578,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E171" s="11" t="s">
@@ -7594,7 +7608,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Future__8F_3M</v>
       </c>
       <c r="B172" s="11" t="s">
@@ -7604,7 +7618,7 @@
         <v>2</v>
       </c>
       <c r="D172" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E172" s="11" t="s">
@@ -7634,7 +7648,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Future__9F_3M</v>
       </c>
       <c r="B173" s="11" t="s">
@@ -7644,7 +7658,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E173" s="11" t="s">
@@ -7674,7 +7688,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Future__10F_3M</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -7684,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E174" s="11" t="s">
@@ -7714,7 +7728,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Future__11F_3M</v>
       </c>
       <c r="B175" s="11" t="s">
@@ -7724,7 +7738,7 @@
         <v>2</v>
       </c>
       <c r="D175" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E175" s="11" t="s">
@@ -7754,7 +7768,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Future__12F_3M</v>
       </c>
       <c r="B176" s="11" t="s">
@@ -7764,7 +7778,7 @@
         <v>2</v>
       </c>
       <c r="D176" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E176" s="11" t="s">
@@ -7794,7 +7808,7 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Future__13F_3M</v>
       </c>
       <c r="B177" s="11" t="s">
@@ -7804,7 +7818,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E177" s="11" t="s">
@@ -7844,7 +7858,7 @@
         <v>17</v>
       </c>
       <c r="D178" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E178" s="11" t="s">
@@ -7876,7 +7890,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="11" t="str">
-        <f t="shared" ref="A179:A202" si="14">CONCATENATE(B179,"__Swap__",K179)</f>
+        <f t="shared" ref="A179:A202" si="15">CONCATENATE(B179,"__Swap__",K179)</f>
         <v>GBPLIBOR3M__Swap__5Y</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -7886,7 +7900,7 @@
         <v>17</v>
       </c>
       <c r="D179" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E179" s="11" t="s">
@@ -7899,11 +7913,11 @@
         <v>51</v>
       </c>
       <c r="H179" s="11" t="str">
-        <f t="shared" ref="H179:H202" si="15">B179</f>
+        <f t="shared" ref="H179:H202" si="16">B179</f>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I179" s="11" t="str">
-        <f t="shared" ref="I179:I202" si="16">B179</f>
+        <f t="shared" ref="I179:I202" si="17">B179</f>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J179" s="11" t="s">
@@ -7918,7 +7932,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__6Y</v>
       </c>
       <c r="B180" s="11" t="s">
@@ -7928,7 +7942,7 @@
         <v>17</v>
       </c>
       <c r="D180" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E180" s="11" t="s">
@@ -7941,13 +7955,13 @@
         <v>51</v>
       </c>
       <c r="H180" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I180" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I180" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J180" s="11" t="s">
         <v>16</v>
       </c>
@@ -7960,7 +7974,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__7Y</v>
       </c>
       <c r="B181" s="11" t="s">
@@ -7970,7 +7984,7 @@
         <v>17</v>
       </c>
       <c r="D181" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E181" s="11" t="s">
@@ -7983,13 +7997,13 @@
         <v>51</v>
       </c>
       <c r="H181" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I181" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I181" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J181" s="11" t="s">
         <v>16</v>
       </c>
@@ -8002,7 +8016,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__8Y</v>
       </c>
       <c r="B182" s="11" t="s">
@@ -8012,7 +8026,7 @@
         <v>17</v>
       </c>
       <c r="D182" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E182" s="11" t="s">
@@ -8025,13 +8039,13 @@
         <v>51</v>
       </c>
       <c r="H182" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I182" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I182" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J182" s="11" t="s">
         <v>16</v>
       </c>
@@ -8044,7 +8058,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__9Y</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -8054,7 +8068,7 @@
         <v>17</v>
       </c>
       <c r="D183" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E183" s="11" t="s">
@@ -8067,13 +8081,13 @@
         <v>51</v>
       </c>
       <c r="H183" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I183" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I183" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J183" s="11" t="s">
         <v>16</v>
       </c>
@@ -8086,7 +8100,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__10Y</v>
       </c>
       <c r="B184" s="11" t="s">
@@ -8096,7 +8110,7 @@
         <v>17</v>
       </c>
       <c r="D184" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E184" s="11" t="s">
@@ -8109,13 +8123,13 @@
         <v>51</v>
       </c>
       <c r="H184" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I184" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I184" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J184" s="11" t="s">
         <v>16</v>
       </c>
@@ -8128,7 +8142,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__11Y</v>
       </c>
       <c r="B185" s="11" t="s">
@@ -8138,7 +8152,7 @@
         <v>17</v>
       </c>
       <c r="D185" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E185" s="11" t="s">
@@ -8151,13 +8165,13 @@
         <v>51</v>
       </c>
       <c r="H185" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I185" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I185" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J185" s="11" t="s">
         <v>16</v>
       </c>
@@ -8170,7 +8184,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__12Y</v>
       </c>
       <c r="B186" s="11" t="s">
@@ -8180,7 +8194,7 @@
         <v>17</v>
       </c>
       <c r="D186" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E186" s="11" t="s">
@@ -8193,13 +8207,13 @@
         <v>51</v>
       </c>
       <c r="H186" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I186" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I186" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J186" s="11" t="s">
         <v>16</v>
       </c>
@@ -8212,7 +8226,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__13Y</v>
       </c>
       <c r="B187" s="11" t="s">
@@ -8222,7 +8236,7 @@
         <v>17</v>
       </c>
       <c r="D187" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E187" s="11" t="s">
@@ -8235,13 +8249,13 @@
         <v>51</v>
       </c>
       <c r="H187" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I187" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I187" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J187" s="11" t="s">
         <v>16</v>
       </c>
@@ -8254,7 +8268,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__14Y</v>
       </c>
       <c r="B188" s="11" t="s">
@@ -8264,7 +8278,7 @@
         <v>17</v>
       </c>
       <c r="D188" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E188" s="11" t="s">
@@ -8277,13 +8291,13 @@
         <v>51</v>
       </c>
       <c r="H188" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I188" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I188" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J188" s="11" t="s">
         <v>16</v>
       </c>
@@ -8296,7 +8310,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__15Y</v>
       </c>
       <c r="B189" s="11" t="s">
@@ -8306,7 +8320,7 @@
         <v>17</v>
       </c>
       <c r="D189" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E189" s="11" t="s">
@@ -8319,13 +8333,13 @@
         <v>51</v>
       </c>
       <c r="H189" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I189" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I189" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J189" s="11" t="s">
         <v>16</v>
       </c>
@@ -8338,7 +8352,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__16Y</v>
       </c>
       <c r="B190" s="11" t="s">
@@ -8348,7 +8362,7 @@
         <v>17</v>
       </c>
       <c r="D190" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E190" s="11" t="s">
@@ -8361,13 +8375,13 @@
         <v>51</v>
       </c>
       <c r="H190" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I190" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I190" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J190" s="11" t="s">
         <v>16</v>
       </c>
@@ -8380,7 +8394,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__17Y</v>
       </c>
       <c r="B191" s="11" t="s">
@@ -8390,7 +8404,7 @@
         <v>17</v>
       </c>
       <c r="D191" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E191" s="11" t="s">
@@ -8403,13 +8417,13 @@
         <v>51</v>
       </c>
       <c r="H191" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I191" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I191" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J191" s="11" t="s">
         <v>16</v>
       </c>
@@ -8422,7 +8436,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__18Y</v>
       </c>
       <c r="B192" s="11" t="s">
@@ -8432,7 +8446,7 @@
         <v>17</v>
       </c>
       <c r="D192" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E192" s="11" t="s">
@@ -8445,13 +8459,13 @@
         <v>51</v>
       </c>
       <c r="H192" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I192" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I192" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J192" s="11" t="s">
         <v>16</v>
       </c>
@@ -8464,7 +8478,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__19Y</v>
       </c>
       <c r="B193" s="11" t="s">
@@ -8474,7 +8488,7 @@
         <v>17</v>
       </c>
       <c r="D193" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E193" s="11" t="s">
@@ -8487,13 +8501,13 @@
         <v>51</v>
       </c>
       <c r="H193" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I193" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I193" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J193" s="11" t="s">
         <v>16</v>
       </c>
@@ -8506,7 +8520,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__20Y</v>
       </c>
       <c r="B194" s="11" t="s">
@@ -8516,7 +8530,7 @@
         <v>17</v>
       </c>
       <c r="D194" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E194" s="11" t="s">
@@ -8529,13 +8543,13 @@
         <v>51</v>
       </c>
       <c r="H194" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I194" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I194" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J194" s="11" t="s">
         <v>16</v>
       </c>
@@ -8548,7 +8562,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__25Y</v>
       </c>
       <c r="B195" s="11" t="s">
@@ -8558,7 +8572,7 @@
         <v>17</v>
       </c>
       <c r="D195" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E195" s="11" t="s">
@@ -8571,13 +8585,13 @@
         <v>51</v>
       </c>
       <c r="H195" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I195" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I195" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J195" s="11" t="s">
         <v>16</v>
       </c>
@@ -8590,7 +8604,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__30Y</v>
       </c>
       <c r="B196" s="11" t="s">
@@ -8600,7 +8614,7 @@
         <v>17</v>
       </c>
       <c r="D196" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E196" s="11" t="s">
@@ -8613,13 +8627,13 @@
         <v>51</v>
       </c>
       <c r="H196" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I196" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I196" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J196" s="11" t="s">
         <v>16</v>
       </c>
@@ -8632,7 +8646,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__35Y</v>
       </c>
       <c r="B197" s="11" t="s">
@@ -8642,7 +8656,7 @@
         <v>17</v>
       </c>
       <c r="D197" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E197" s="11" t="s">
@@ -8655,13 +8669,13 @@
         <v>51</v>
       </c>
       <c r="H197" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I197" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I197" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J197" s="11" t="s">
         <v>16</v>
       </c>
@@ -8674,7 +8688,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__40Y</v>
       </c>
       <c r="B198" s="11" t="s">
@@ -8684,7 +8698,7 @@
         <v>17</v>
       </c>
       <c r="D198" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E198" s="11" t="s">
@@ -8697,13 +8711,13 @@
         <v>51</v>
       </c>
       <c r="H198" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I198" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I198" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J198" s="11" t="s">
         <v>16</v>
       </c>
@@ -8716,7 +8730,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__45Y</v>
       </c>
       <c r="B199" s="11" t="s">
@@ -8726,7 +8740,7 @@
         <v>17</v>
       </c>
       <c r="D199" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E199" s="11" t="s">
@@ -8739,13 +8753,13 @@
         <v>51</v>
       </c>
       <c r="H199" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I199" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I199" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J199" s="11" t="s">
         <v>16</v>
       </c>
@@ -8758,7 +8772,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__50Y</v>
       </c>
       <c r="B200" s="11" t="s">
@@ -8768,7 +8782,7 @@
         <v>17</v>
       </c>
       <c r="D200" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E200" s="11" t="s">
@@ -8781,13 +8795,13 @@
         <v>51</v>
       </c>
       <c r="H200" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I200" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I200" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J200" s="11" t="s">
         <v>16</v>
       </c>
@@ -8800,7 +8814,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__60Y</v>
       </c>
       <c r="B201" s="11" t="s">
@@ -8810,7 +8824,7 @@
         <v>17</v>
       </c>
       <c r="D201" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E201" s="11" t="s">
@@ -8823,13 +8837,13 @@
         <v>51</v>
       </c>
       <c r="H201" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I201" s="11" t="str">
         <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I201" s="11" t="str">
+        <f t="shared" si="17"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J201" s="11" t="s">
         <v>16</v>
       </c>
@@ -8842,7 +8856,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Swap__70Y</v>
       </c>
       <c r="B202" s="11" t="s">
@@ -8852,7 +8866,7 @@
         <v>17</v>
       </c>
       <c r="D202" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E202" s="11" t="s">
@@ -8865,11 +8879,11 @@
         <v>51</v>
       </c>
       <c r="H202" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I202" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J202" s="11" t="s">
@@ -8923,7 +8937,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="9" t="str">
-        <f t="shared" ref="A204:A235" si="17">CONCATENATE(B204,"__TermDeposit__",K204)</f>
+        <f t="shared" ref="A204:A235" si="18">CONCATENATE(B204,"__TermDeposit__",K204)</f>
         <v>GBP-GBPSONIA__TermDeposit__1M</v>
       </c>
       <c r="B204" s="9" t="s">
@@ -8962,7 +8976,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__2M</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -9001,7 +9015,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__3M</v>
       </c>
       <c r="B206" s="9" t="s">
@@ -9040,7 +9054,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__6M</v>
       </c>
       <c r="B207" s="9" t="s">
@@ -9079,7 +9093,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__1Y</v>
       </c>
       <c r="B208" s="9" t="s">
@@ -9118,7 +9132,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__2Y</v>
       </c>
       <c r="B209" s="9" t="s">
@@ -9157,7 +9171,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__3Y</v>
       </c>
       <c r="B210" s="9" t="s">
@@ -9196,7 +9210,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__4Y</v>
       </c>
       <c r="B211" s="9" t="s">
@@ -9235,7 +9249,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__5Y</v>
       </c>
       <c r="B212" s="9" t="s">
@@ -9274,7 +9288,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__6Y</v>
       </c>
       <c r="B213" s="9" t="s">
@@ -9313,7 +9327,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__7Y</v>
       </c>
       <c r="B214" s="9" t="s">
@@ -9352,7 +9366,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__8Y</v>
       </c>
       <c r="B215" s="9" t="s">
@@ -9391,7 +9405,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__9Y</v>
       </c>
       <c r="B216" s="9" t="s">
@@ -9430,7 +9444,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__10Y</v>
       </c>
       <c r="B217" s="9" t="s">
@@ -9469,7 +9483,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__11Y</v>
       </c>
       <c r="B218" s="9" t="s">
@@ -9508,7 +9522,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__12Y</v>
       </c>
       <c r="B219" s="9" t="s">
@@ -9547,7 +9561,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__13Y</v>
       </c>
       <c r="B220" s="9" t="s">
@@ -9586,7 +9600,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__14Y</v>
       </c>
       <c r="B221" s="9" t="s">
@@ -9625,7 +9639,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__15Y</v>
       </c>
       <c r="B222" s="9" t="s">
@@ -9664,7 +9678,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__16Y</v>
       </c>
       <c r="B223" s="9" t="s">
@@ -9703,7 +9717,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__17Y</v>
       </c>
       <c r="B224" s="9" t="s">
@@ -9742,7 +9756,7 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__18Y</v>
       </c>
       <c r="B225" s="9" t="s">
@@ -9781,7 +9795,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__19Y</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -9820,7 +9834,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__20Y</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -9859,7 +9873,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__25Y</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -9898,7 +9912,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__30Y</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -9937,7 +9951,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__35Y</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -9976,7 +9990,7 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__40Y</v>
       </c>
       <c r="B231" s="9" t="s">
@@ -10015,7 +10029,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="A232" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__45Y</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -10054,7 +10068,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__50Y</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -10093,7 +10107,7 @@
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__60Y</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -10132,7 +10146,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBP-GBPSONIA__TermDeposit__70Y</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -10219,9 +10233,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/engine_usd_gbp.xlsx
+++ b/engine_usd_gbp.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="76">
   <si>
     <t>3M</t>
   </si>
@@ -689,8 +689,8 @@
   <dimension ref="A1:L235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7310,8 +7310,9 @@
       <c r="G164" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H164" s="11" t="s">
-        <v>51</v>
+      <c r="H164" s="11" t="str">
+        <f t="shared" ref="H164:H178" si="13">B164</f>
+        <v>GBPLIBOR3M</v>
       </c>
       <c r="I164" s="11" t="s">
         <v>51</v>
@@ -7338,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="11" t="str">
-        <f t="shared" ref="D165:D202" si="13">B165</f>
+        <f t="shared" ref="D165:D202" si="14">B165</f>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E165" s="11" t="s">
@@ -7350,8 +7351,9 @@
       <c r="G165" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H165" s="11" t="s">
-        <v>51</v>
+      <c r="H165" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>GBPLIBOR3M</v>
       </c>
       <c r="I165" s="11" t="s">
         <v>51</v>
@@ -7368,7 +7370,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="11" t="str">
-        <f t="shared" ref="A166:A177" si="14">CONCATENATE(B165,"__Future__",J166,"_",K166)</f>
+        <f t="shared" ref="A166:A177" si="15">CONCATENATE(B165,"__Future__",J166,"_",K166)</f>
         <v>GBPLIBOR3M__Future__2F_3M</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -7378,21 +7380,22 @@
         <v>2</v>
       </c>
       <c r="D166" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H166" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
-      <c r="E166" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F166" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H166" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="I166" s="11" t="s">
         <v>51</v>
       </c>
@@ -7408,7 +7411,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Future__3F_3M</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -7418,21 +7421,22 @@
         <v>2</v>
       </c>
       <c r="D167" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H167" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
-      <c r="E167" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G167" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="I167" s="11" t="s">
         <v>51</v>
       </c>
@@ -7448,7 +7452,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Future__4F_3M</v>
       </c>
       <c r="B168" s="11" t="s">
@@ -7458,21 +7462,22 @@
         <v>2</v>
       </c>
       <c r="D168" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H168" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
-      <c r="E168" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F168" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H168" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="I168" s="11" t="s">
         <v>51</v>
       </c>
@@ -7488,7 +7493,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Future__5F_3M</v>
       </c>
       <c r="B169" s="11" t="s">
@@ -7498,21 +7503,22 @@
         <v>2</v>
       </c>
       <c r="D169" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H169" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
-      <c r="E169" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="I169" s="11" t="s">
         <v>51</v>
       </c>
@@ -7528,7 +7534,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Future__6F_3M</v>
       </c>
       <c r="B170" s="11" t="s">
@@ -7538,21 +7544,22 @@
         <v>2</v>
       </c>
       <c r="D170" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H170" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
-      <c r="E170" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="I170" s="11" t="s">
         <v>51</v>
       </c>
@@ -7568,7 +7575,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Future__7F_3M</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -7578,21 +7585,22 @@
         <v>2</v>
       </c>
       <c r="D171" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H171" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
-      <c r="E171" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F171" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G171" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H171" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="I171" s="11" t="s">
         <v>51</v>
       </c>
@@ -7608,7 +7616,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Future__8F_3M</v>
       </c>
       <c r="B172" s="11" t="s">
@@ -7618,21 +7626,22 @@
         <v>2</v>
       </c>
       <c r="D172" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H172" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
-      <c r="E172" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F172" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H172" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="I172" s="11" t="s">
         <v>51</v>
       </c>
@@ -7648,7 +7657,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Future__9F_3M</v>
       </c>
       <c r="B173" s="11" t="s">
@@ -7658,21 +7667,22 @@
         <v>2</v>
       </c>
       <c r="D173" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H173" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
-      <c r="E173" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G173" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H173" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="I173" s="11" t="s">
         <v>51</v>
       </c>
@@ -7688,7 +7698,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Future__10F_3M</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -7698,21 +7708,22 @@
         <v>2</v>
       </c>
       <c r="D174" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H174" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
-      <c r="E174" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="I174" s="11" t="s">
         <v>51</v>
       </c>
@@ -7728,7 +7739,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Future__11F_3M</v>
       </c>
       <c r="B175" s="11" t="s">
@@ -7738,21 +7749,22 @@
         <v>2</v>
       </c>
       <c r="D175" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H175" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
-      <c r="E175" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F175" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G175" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H175" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="I175" s="11" t="s">
         <v>51</v>
       </c>
@@ -7768,7 +7780,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Future__12F_3M</v>
       </c>
       <c r="B176" s="11" t="s">
@@ -7778,21 +7790,22 @@
         <v>2</v>
       </c>
       <c r="D176" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H176" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
-      <c r="E176" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F176" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G176" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H176" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="I176" s="11" t="s">
         <v>51</v>
       </c>
@@ -7808,7 +7821,7 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M__Future__13F_3M</v>
       </c>
       <c r="B177" s="11" t="s">
@@ -7818,20 +7831,21 @@
         <v>2</v>
       </c>
       <c r="D177" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>GBPLIBOR3M</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H177" s="11" t="str">
         <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
-      </c>
-      <c r="E177" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G177" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H177" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="I177" s="11" t="s">
         <v>51</v>
@@ -7858,7 +7872,7 @@
         <v>17</v>
       </c>
       <c r="D178" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E178" s="11" t="s">
@@ -7871,7 +7885,7 @@
         <v>51</v>
       </c>
       <c r="H178" s="11" t="str">
-        <f>B178</f>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I178" s="11" t="str">
@@ -7890,7 +7904,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="11" t="str">
-        <f t="shared" ref="A179:A202" si="15">CONCATENATE(B179,"__Swap__",K179)</f>
+        <f t="shared" ref="A179:A202" si="16">CONCATENATE(B179,"__Swap__",K179)</f>
         <v>GBPLIBOR3M__Swap__5Y</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -7900,7 +7914,7 @@
         <v>17</v>
       </c>
       <c r="D179" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E179" s="11" t="s">
@@ -7913,11 +7927,11 @@
         <v>51</v>
       </c>
       <c r="H179" s="11" t="str">
-        <f t="shared" ref="H179:H202" si="16">B179</f>
+        <f t="shared" ref="H179:H202" si="17">B179</f>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I179" s="11" t="str">
-        <f t="shared" ref="I179:I202" si="17">B179</f>
+        <f t="shared" ref="I179:I202" si="18">B179</f>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J179" s="11" t="s">
@@ -7932,7 +7946,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__6Y</v>
       </c>
       <c r="B180" s="11" t="s">
@@ -7942,7 +7956,7 @@
         <v>17</v>
       </c>
       <c r="D180" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E180" s="11" t="s">
@@ -7955,13 +7969,13 @@
         <v>51</v>
       </c>
       <c r="H180" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I180" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I180" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J180" s="11" t="s">
         <v>16</v>
       </c>
@@ -7974,7 +7988,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__7Y</v>
       </c>
       <c r="B181" s="11" t="s">
@@ -7984,7 +7998,7 @@
         <v>17</v>
       </c>
       <c r="D181" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E181" s="11" t="s">
@@ -7997,13 +8011,13 @@
         <v>51</v>
       </c>
       <c r="H181" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I181" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I181" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J181" s="11" t="s">
         <v>16</v>
       </c>
@@ -8016,7 +8030,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__8Y</v>
       </c>
       <c r="B182" s="11" t="s">
@@ -8026,7 +8040,7 @@
         <v>17</v>
       </c>
       <c r="D182" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E182" s="11" t="s">
@@ -8039,13 +8053,13 @@
         <v>51</v>
       </c>
       <c r="H182" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I182" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I182" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J182" s="11" t="s">
         <v>16</v>
       </c>
@@ -8058,7 +8072,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__9Y</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -8068,7 +8082,7 @@
         <v>17</v>
       </c>
       <c r="D183" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E183" s="11" t="s">
@@ -8081,13 +8095,13 @@
         <v>51</v>
       </c>
       <c r="H183" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I183" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I183" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J183" s="11" t="s">
         <v>16</v>
       </c>
@@ -8100,7 +8114,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__10Y</v>
       </c>
       <c r="B184" s="11" t="s">
@@ -8110,7 +8124,7 @@
         <v>17</v>
       </c>
       <c r="D184" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E184" s="11" t="s">
@@ -8123,13 +8137,13 @@
         <v>51</v>
       </c>
       <c r="H184" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I184" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I184" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J184" s="11" t="s">
         <v>16</v>
       </c>
@@ -8142,7 +8156,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__11Y</v>
       </c>
       <c r="B185" s="11" t="s">
@@ -8152,7 +8166,7 @@
         <v>17</v>
       </c>
       <c r="D185" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E185" s="11" t="s">
@@ -8165,13 +8179,13 @@
         <v>51</v>
       </c>
       <c r="H185" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I185" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I185" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J185" s="11" t="s">
         <v>16</v>
       </c>
@@ -8184,7 +8198,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__12Y</v>
       </c>
       <c r="B186" s="11" t="s">
@@ -8194,7 +8208,7 @@
         <v>17</v>
       </c>
       <c r="D186" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E186" s="11" t="s">
@@ -8207,13 +8221,13 @@
         <v>51</v>
       </c>
       <c r="H186" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I186" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I186" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J186" s="11" t="s">
         <v>16</v>
       </c>
@@ -8226,7 +8240,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__13Y</v>
       </c>
       <c r="B187" s="11" t="s">
@@ -8236,7 +8250,7 @@
         <v>17</v>
       </c>
       <c r="D187" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E187" s="11" t="s">
@@ -8249,13 +8263,13 @@
         <v>51</v>
       </c>
       <c r="H187" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I187" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I187" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J187" s="11" t="s">
         <v>16</v>
       </c>
@@ -8268,7 +8282,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__14Y</v>
       </c>
       <c r="B188" s="11" t="s">
@@ -8278,7 +8292,7 @@
         <v>17</v>
       </c>
       <c r="D188" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E188" s="11" t="s">
@@ -8291,13 +8305,13 @@
         <v>51</v>
       </c>
       <c r="H188" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I188" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I188" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J188" s="11" t="s">
         <v>16</v>
       </c>
@@ -8310,7 +8324,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__15Y</v>
       </c>
       <c r="B189" s="11" t="s">
@@ -8320,7 +8334,7 @@
         <v>17</v>
       </c>
       <c r="D189" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E189" s="11" t="s">
@@ -8333,13 +8347,13 @@
         <v>51</v>
       </c>
       <c r="H189" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I189" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I189" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J189" s="11" t="s">
         <v>16</v>
       </c>
@@ -8352,7 +8366,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__16Y</v>
       </c>
       <c r="B190" s="11" t="s">
@@ -8362,7 +8376,7 @@
         <v>17</v>
       </c>
       <c r="D190" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E190" s="11" t="s">
@@ -8375,13 +8389,13 @@
         <v>51</v>
       </c>
       <c r="H190" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I190" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I190" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J190" s="11" t="s">
         <v>16</v>
       </c>
@@ -8394,7 +8408,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__17Y</v>
       </c>
       <c r="B191" s="11" t="s">
@@ -8404,7 +8418,7 @@
         <v>17</v>
       </c>
       <c r="D191" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E191" s="11" t="s">
@@ -8417,13 +8431,13 @@
         <v>51</v>
       </c>
       <c r="H191" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I191" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I191" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J191" s="11" t="s">
         <v>16</v>
       </c>
@@ -8436,7 +8450,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__18Y</v>
       </c>
       <c r="B192" s="11" t="s">
@@ -8446,7 +8460,7 @@
         <v>17</v>
       </c>
       <c r="D192" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E192" s="11" t="s">
@@ -8459,13 +8473,13 @@
         <v>51</v>
       </c>
       <c r="H192" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I192" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I192" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J192" s="11" t="s">
         <v>16</v>
       </c>
@@ -8478,7 +8492,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__19Y</v>
       </c>
       <c r="B193" s="11" t="s">
@@ -8488,7 +8502,7 @@
         <v>17</v>
       </c>
       <c r="D193" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E193" s="11" t="s">
@@ -8501,13 +8515,13 @@
         <v>51</v>
       </c>
       <c r="H193" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I193" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I193" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J193" s="11" t="s">
         <v>16</v>
       </c>
@@ -8520,7 +8534,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__20Y</v>
       </c>
       <c r="B194" s="11" t="s">
@@ -8530,7 +8544,7 @@
         <v>17</v>
       </c>
       <c r="D194" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E194" s="11" t="s">
@@ -8543,13 +8557,13 @@
         <v>51</v>
       </c>
       <c r="H194" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I194" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I194" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J194" s="11" t="s">
         <v>16</v>
       </c>
@@ -8562,7 +8576,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__25Y</v>
       </c>
       <c r="B195" s="11" t="s">
@@ -8572,7 +8586,7 @@
         <v>17</v>
       </c>
       <c r="D195" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E195" s="11" t="s">
@@ -8585,13 +8599,13 @@
         <v>51</v>
       </c>
       <c r="H195" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I195" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I195" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J195" s="11" t="s">
         <v>16</v>
       </c>
@@ -8604,7 +8618,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__30Y</v>
       </c>
       <c r="B196" s="11" t="s">
@@ -8614,7 +8628,7 @@
         <v>17</v>
       </c>
       <c r="D196" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E196" s="11" t="s">
@@ -8627,13 +8641,13 @@
         <v>51</v>
       </c>
       <c r="H196" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I196" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I196" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J196" s="11" t="s">
         <v>16</v>
       </c>
@@ -8646,7 +8660,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__35Y</v>
       </c>
       <c r="B197" s="11" t="s">
@@ -8656,7 +8670,7 @@
         <v>17</v>
       </c>
       <c r="D197" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E197" s="11" t="s">
@@ -8669,13 +8683,13 @@
         <v>51</v>
       </c>
       <c r="H197" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I197" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I197" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J197" s="11" t="s">
         <v>16</v>
       </c>
@@ -8688,7 +8702,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__40Y</v>
       </c>
       <c r="B198" s="11" t="s">
@@ -8698,7 +8712,7 @@
         <v>17</v>
       </c>
       <c r="D198" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E198" s="11" t="s">
@@ -8711,13 +8725,13 @@
         <v>51</v>
       </c>
       <c r="H198" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I198" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I198" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J198" s="11" t="s">
         <v>16</v>
       </c>
@@ -8730,7 +8744,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__45Y</v>
       </c>
       <c r="B199" s="11" t="s">
@@ -8740,7 +8754,7 @@
         <v>17</v>
       </c>
       <c r="D199" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E199" s="11" t="s">
@@ -8753,13 +8767,13 @@
         <v>51</v>
       </c>
       <c r="H199" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I199" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I199" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J199" s="11" t="s">
         <v>16</v>
       </c>
@@ -8772,7 +8786,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__50Y</v>
       </c>
       <c r="B200" s="11" t="s">
@@ -8782,7 +8796,7 @@
         <v>17</v>
       </c>
       <c r="D200" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E200" s="11" t="s">
@@ -8795,13 +8809,13 @@
         <v>51</v>
       </c>
       <c r="H200" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I200" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I200" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J200" s="11" t="s">
         <v>16</v>
       </c>
@@ -8814,7 +8828,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__60Y</v>
       </c>
       <c r="B201" s="11" t="s">
@@ -8824,7 +8838,7 @@
         <v>17</v>
       </c>
       <c r="D201" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E201" s="11" t="s">
@@ -8837,13 +8851,13 @@
         <v>51</v>
       </c>
       <c r="H201" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>GBPLIBOR3M</v>
-      </c>
-      <c r="I201" s="11" t="str">
         <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
+      <c r="I201" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>GBPLIBOR3M</v>
+      </c>
       <c r="J201" s="11" t="s">
         <v>16</v>
       </c>
@@ -8856,7 +8870,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M__Swap__70Y</v>
       </c>
       <c r="B202" s="11" t="s">
@@ -8866,7 +8880,7 @@
         <v>17</v>
       </c>
       <c r="D202" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E202" s="11" t="s">
@@ -8879,11 +8893,11 @@
         <v>51</v>
       </c>
       <c r="H202" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I202" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J202" s="11" t="s">
@@ -8937,7 +8951,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="9" t="str">
-        <f t="shared" ref="A204:A235" si="18">CONCATENATE(B204,"__TermDeposit__",K204)</f>
+        <f t="shared" ref="A204:A235" si="19">CONCATENATE(B204,"__TermDeposit__",K204)</f>
         <v>GBP-GBPSONIA__TermDeposit__1M</v>
       </c>
       <c r="B204" s="9" t="s">
@@ -8976,7 +8990,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__2M</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -9015,7 +9029,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__3M</v>
       </c>
       <c r="B206" s="9" t="s">
@@ -9054,7 +9068,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__6M</v>
       </c>
       <c r="B207" s="9" t="s">
@@ -9093,7 +9107,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__1Y</v>
       </c>
       <c r="B208" s="9" t="s">
@@ -9132,7 +9146,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__2Y</v>
       </c>
       <c r="B209" s="9" t="s">
@@ -9171,7 +9185,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__3Y</v>
       </c>
       <c r="B210" s="9" t="s">
@@ -9210,7 +9224,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__4Y</v>
       </c>
       <c r="B211" s="9" t="s">
@@ -9249,7 +9263,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__5Y</v>
       </c>
       <c r="B212" s="9" t="s">
@@ -9288,7 +9302,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__6Y</v>
       </c>
       <c r="B213" s="9" t="s">
@@ -9327,7 +9341,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__7Y</v>
       </c>
       <c r="B214" s="9" t="s">
@@ -9366,7 +9380,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__8Y</v>
       </c>
       <c r="B215" s="9" t="s">
@@ -9405,7 +9419,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__9Y</v>
       </c>
       <c r="B216" s="9" t="s">
@@ -9444,7 +9458,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__10Y</v>
       </c>
       <c r="B217" s="9" t="s">
@@ -9483,7 +9497,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__11Y</v>
       </c>
       <c r="B218" s="9" t="s">
@@ -9522,7 +9536,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__12Y</v>
       </c>
       <c r="B219" s="9" t="s">
@@ -9561,7 +9575,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__13Y</v>
       </c>
       <c r="B220" s="9" t="s">
@@ -9600,7 +9614,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__14Y</v>
       </c>
       <c r="B221" s="9" t="s">
@@ -9639,7 +9653,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__15Y</v>
       </c>
       <c r="B222" s="9" t="s">
@@ -9678,7 +9692,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__16Y</v>
       </c>
       <c r="B223" s="9" t="s">
@@ -9717,7 +9731,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__17Y</v>
       </c>
       <c r="B224" s="9" t="s">
@@ -9756,7 +9770,7 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__18Y</v>
       </c>
       <c r="B225" s="9" t="s">
@@ -9795,7 +9809,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__19Y</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -9834,7 +9848,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__20Y</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -9873,7 +9887,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__25Y</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -9912,7 +9926,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__30Y</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -9951,7 +9965,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__35Y</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -9990,7 +10004,7 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__40Y</v>
       </c>
       <c r="B231" s="9" t="s">
@@ -10029,7 +10043,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="A232" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__45Y</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -10068,7 +10082,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__50Y</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -10107,7 +10121,7 @@
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__60Y</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -10146,7 +10160,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GBP-GBPSONIA__TermDeposit__70Y</v>
       </c>
       <c r="B235" s="9" t="s">

--- a/engine_usd_gbp.xlsx
+++ b/engine_usd_gbp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="13920" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="13920" windowHeight="4950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument Properties" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="77">
   <si>
     <t>3M</t>
   </si>
@@ -247,6 +247,9 @@
   <si>
     <t>Convention Right</t>
   </si>
+  <si>
+    <t>Solve Stage</t>
+  </si>
 </sst>
 </file>
 
@@ -325,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -373,11 +376,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -392,6 +404,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
     </sheetView>
@@ -10241,79 +10259,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="15">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>69</v>
       </c>
     </row>

--- a/engine_usd_gbp.xlsx
+++ b/engine_usd_gbp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="13920" windowHeight="4950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="13920" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument Properties" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="77">
   <si>
     <t>3M</t>
   </si>
@@ -706,9 +706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L235"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6086,24 +6086,22 @@
         <v>61</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H134" s="10" t="str">
-        <f>D134</f>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I134" s="10" t="str">
-        <f>H134</f>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J134" s="10" t="s">
         <v>16</v>
@@ -6127,24 +6125,22 @@
         <v>61</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H135" s="10" t="str">
-        <f t="shared" ref="H135:H163" si="11">D135</f>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I135" s="10" t="str">
-        <f t="shared" ref="I135:I163" si="12">H135</f>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J135" s="10" t="s">
         <v>16</v>
@@ -6168,24 +6164,22 @@
         <v>61</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H136" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I136" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J136" s="10" t="s">
         <v>16</v>
@@ -6209,24 +6203,22 @@
         <v>61</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H137" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I137" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I137" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J137" s="10" t="s">
         <v>16</v>
@@ -6250,24 +6242,22 @@
         <v>61</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H138" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I138" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J138" s="10" t="s">
         <v>16</v>
@@ -6291,24 +6281,22 @@
         <v>61</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H139" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I139" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I139" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J139" s="10" t="s">
         <v>16</v>
@@ -6332,24 +6320,22 @@
         <v>61</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H140" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I140" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J140" s="10" t="s">
         <v>16</v>
@@ -6373,24 +6359,22 @@
         <v>61</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H141" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I141" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I141" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J141" s="10" t="s">
         <v>16</v>
@@ -6414,24 +6398,22 @@
         <v>61</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H142" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I142" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J142" s="10" t="s">
         <v>16</v>
@@ -6455,24 +6437,22 @@
         <v>61</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H143" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I143" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I143" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J143" s="10" t="s">
         <v>16</v>
@@ -6496,24 +6476,22 @@
         <v>61</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H144" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I144" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J144" s="10" t="s">
         <v>16</v>
@@ -6537,24 +6515,22 @@
         <v>61</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H145" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I145" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I145" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J145" s="10" t="s">
         <v>16</v>
@@ -6578,24 +6554,22 @@
         <v>61</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H146" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I146" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J146" s="10" t="s">
         <v>16</v>
@@ -6619,24 +6593,22 @@
         <v>61</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H147" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I147" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I147" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J147" s="10" t="s">
         <v>16</v>
@@ -6660,24 +6632,22 @@
         <v>61</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H148" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I148" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I148" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J148" s="10" t="s">
         <v>16</v>
@@ -6701,24 +6671,22 @@
         <v>61</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H149" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I149" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I149" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J149" s="10" t="s">
         <v>16</v>
@@ -6742,24 +6710,22 @@
         <v>61</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H150" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I150" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J150" s="10" t="s">
         <v>16</v>
@@ -6783,24 +6749,22 @@
         <v>61</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H151" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I151" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J151" s="10" t="s">
         <v>16</v>
@@ -6824,24 +6788,22 @@
         <v>61</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H152" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I152" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J152" s="10" t="s">
         <v>16</v>
@@ -6865,24 +6827,22 @@
         <v>61</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H153" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I153" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H153" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I153" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J153" s="10" t="s">
         <v>16</v>
@@ -6906,24 +6866,22 @@
         <v>61</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H154" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I154" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I154" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J154" s="10" t="s">
         <v>16</v>
@@ -6947,24 +6905,22 @@
         <v>61</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H155" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I155" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I155" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J155" s="10" t="s">
         <v>16</v>
@@ -6988,24 +6944,22 @@
         <v>61</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H156" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I156" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I156" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J156" s="10" t="s">
         <v>16</v>
@@ -7029,24 +6983,22 @@
         <v>61</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H157" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I157" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I157" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J157" s="10" t="s">
         <v>16</v>
@@ -7070,24 +7022,22 @@
         <v>61</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H158" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I158" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I158" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J158" s="10" t="s">
         <v>16</v>
@@ -7111,24 +7061,22 @@
         <v>61</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H159" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I159" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H159" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I159" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J159" s="10" t="s">
         <v>16</v>
@@ -7152,24 +7100,22 @@
         <v>61</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H160" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I160" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J160" s="10" t="s">
         <v>16</v>
@@ -7193,24 +7139,22 @@
         <v>61</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H161" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I161" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H161" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I161" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J161" s="10" t="s">
         <v>16</v>
@@ -7234,24 +7178,22 @@
         <v>61</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H162" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I162" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I162" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J162" s="10" t="s">
         <v>16</v>
@@ -7275,24 +7217,22 @@
         <v>61</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H163" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I163" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>USDLIBOR3M</v>
+        <v>66</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I163" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J163" s="10" t="s">
         <v>16</v>
@@ -7329,7 +7269,7 @@
         <v>51</v>
       </c>
       <c r="H164" s="11" t="str">
-        <f t="shared" ref="H164:H178" si="13">B164</f>
+        <f t="shared" ref="H164:H178" si="11">B164</f>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I164" s="11" t="s">
@@ -7357,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="11" t="str">
-        <f t="shared" ref="D165:D202" si="14">B165</f>
+        <f t="shared" ref="D165:D202" si="12">B165</f>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E165" s="11" t="s">
@@ -7370,7 +7310,7 @@
         <v>51</v>
       </c>
       <c r="H165" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I165" s="11" t="s">
@@ -7388,7 +7328,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="11" t="str">
-        <f t="shared" ref="A166:A177" si="15">CONCATENATE(B165,"__Future__",J166,"_",K166)</f>
+        <f t="shared" ref="A166:A177" si="13">CONCATENATE(B165,"__Future__",J166,"_",K166)</f>
         <v>GBPLIBOR3M__Future__2F_3M</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -7398,7 +7338,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E166" s="11" t="s">
@@ -7411,7 +7351,7 @@
         <v>51</v>
       </c>
       <c r="H166" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I166" s="11" t="s">
@@ -7429,7 +7369,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M__Future__3F_3M</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -7439,7 +7379,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E167" s="11" t="s">
@@ -7452,7 +7392,7 @@
         <v>51</v>
       </c>
       <c r="H167" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I167" s="11" t="s">
@@ -7470,7 +7410,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M__Future__4F_3M</v>
       </c>
       <c r="B168" s="11" t="s">
@@ -7480,7 +7420,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E168" s="11" t="s">
@@ -7493,7 +7433,7 @@
         <v>51</v>
       </c>
       <c r="H168" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I168" s="11" t="s">
@@ -7511,7 +7451,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M__Future__5F_3M</v>
       </c>
       <c r="B169" s="11" t="s">
@@ -7521,7 +7461,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E169" s="11" t="s">
@@ -7534,7 +7474,7 @@
         <v>51</v>
       </c>
       <c r="H169" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I169" s="11" t="s">
@@ -7552,7 +7492,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M__Future__6F_3M</v>
       </c>
       <c r="B170" s="11" t="s">
@@ -7562,7 +7502,7 @@
         <v>2</v>
       </c>
       <c r="D170" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E170" s="11" t="s">
@@ -7575,7 +7515,7 @@
         <v>51</v>
       </c>
       <c r="H170" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I170" s="11" t="s">
@@ -7593,7 +7533,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M__Future__7F_3M</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -7603,7 +7543,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E171" s="11" t="s">
@@ -7616,7 +7556,7 @@
         <v>51</v>
       </c>
       <c r="H171" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I171" s="11" t="s">
@@ -7634,7 +7574,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M__Future__8F_3M</v>
       </c>
       <c r="B172" s="11" t="s">
@@ -7644,7 +7584,7 @@
         <v>2</v>
       </c>
       <c r="D172" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E172" s="11" t="s">
@@ -7657,7 +7597,7 @@
         <v>51</v>
       </c>
       <c r="H172" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I172" s="11" t="s">
@@ -7675,7 +7615,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M__Future__9F_3M</v>
       </c>
       <c r="B173" s="11" t="s">
@@ -7685,7 +7625,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E173" s="11" t="s">
@@ -7698,7 +7638,7 @@
         <v>51</v>
       </c>
       <c r="H173" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I173" s="11" t="s">
@@ -7716,7 +7656,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M__Future__10F_3M</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -7726,7 +7666,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E174" s="11" t="s">
@@ -7739,7 +7679,7 @@
         <v>51</v>
       </c>
       <c r="H174" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I174" s="11" t="s">
@@ -7757,7 +7697,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M__Future__11F_3M</v>
       </c>
       <c r="B175" s="11" t="s">
@@ -7767,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="D175" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E175" s="11" t="s">
@@ -7780,7 +7720,7 @@
         <v>51</v>
       </c>
       <c r="H175" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I175" s="11" t="s">
@@ -7798,7 +7738,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M__Future__12F_3M</v>
       </c>
       <c r="B176" s="11" t="s">
@@ -7808,7 +7748,7 @@
         <v>2</v>
       </c>
       <c r="D176" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E176" s="11" t="s">
@@ -7821,7 +7761,7 @@
         <v>51</v>
       </c>
       <c r="H176" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I176" s="11" t="s">
@@ -7839,7 +7779,7 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>GBPLIBOR3M__Future__13F_3M</v>
       </c>
       <c r="B177" s="11" t="s">
@@ -7849,7 +7789,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E177" s="11" t="s">
@@ -7862,7 +7802,7 @@
         <v>51</v>
       </c>
       <c r="H177" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I177" s="11" t="s">
@@ -7890,7 +7830,7 @@
         <v>17</v>
       </c>
       <c r="D178" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E178" s="11" t="s">
@@ -7903,7 +7843,7 @@
         <v>51</v>
       </c>
       <c r="H178" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I178" s="11" t="str">
@@ -7922,7 +7862,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="11" t="str">
-        <f t="shared" ref="A179:A202" si="16">CONCATENATE(B179,"__Swap__",K179)</f>
+        <f t="shared" ref="A179:A202" si="14">CONCATENATE(B179,"__Swap__",K179)</f>
         <v>GBPLIBOR3M__Swap__5Y</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -7932,7 +7872,7 @@
         <v>17</v>
       </c>
       <c r="D179" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E179" s="11" t="s">
@@ -7945,11 +7885,11 @@
         <v>51</v>
       </c>
       <c r="H179" s="11" t="str">
-        <f t="shared" ref="H179:H202" si="17">B179</f>
+        <f t="shared" ref="H179:H202" si="15">B179</f>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I179" s="11" t="str">
-        <f t="shared" ref="I179:I202" si="18">B179</f>
+        <f t="shared" ref="I179:I202" si="16">B179</f>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J179" s="11" t="s">
@@ -7964,7 +7904,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__6Y</v>
       </c>
       <c r="B180" s="11" t="s">
@@ -7974,7 +7914,7 @@
         <v>17</v>
       </c>
       <c r="D180" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E180" s="11" t="s">
@@ -7987,11 +7927,11 @@
         <v>51</v>
       </c>
       <c r="H180" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I180" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J180" s="11" t="s">
@@ -8006,7 +7946,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__7Y</v>
       </c>
       <c r="B181" s="11" t="s">
@@ -8016,7 +7956,7 @@
         <v>17</v>
       </c>
       <c r="D181" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E181" s="11" t="s">
@@ -8029,11 +7969,11 @@
         <v>51</v>
       </c>
       <c r="H181" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I181" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J181" s="11" t="s">
@@ -8048,7 +7988,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__8Y</v>
       </c>
       <c r="B182" s="11" t="s">
@@ -8058,7 +7998,7 @@
         <v>17</v>
       </c>
       <c r="D182" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E182" s="11" t="s">
@@ -8071,11 +8011,11 @@
         <v>51</v>
       </c>
       <c r="H182" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I182" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J182" s="11" t="s">
@@ -8090,7 +8030,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__9Y</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -8100,7 +8040,7 @@
         <v>17</v>
       </c>
       <c r="D183" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E183" s="11" t="s">
@@ -8113,11 +8053,11 @@
         <v>51</v>
       </c>
       <c r="H183" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I183" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J183" s="11" t="s">
@@ -8132,7 +8072,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__10Y</v>
       </c>
       <c r="B184" s="11" t="s">
@@ -8142,7 +8082,7 @@
         <v>17</v>
       </c>
       <c r="D184" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E184" s="11" t="s">
@@ -8155,11 +8095,11 @@
         <v>51</v>
       </c>
       <c r="H184" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I184" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J184" s="11" t="s">
@@ -8174,7 +8114,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__11Y</v>
       </c>
       <c r="B185" s="11" t="s">
@@ -8184,7 +8124,7 @@
         <v>17</v>
       </c>
       <c r="D185" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E185" s="11" t="s">
@@ -8197,11 +8137,11 @@
         <v>51</v>
       </c>
       <c r="H185" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I185" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J185" s="11" t="s">
@@ -8216,7 +8156,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__12Y</v>
       </c>
       <c r="B186" s="11" t="s">
@@ -8226,7 +8166,7 @@
         <v>17</v>
       </c>
       <c r="D186" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E186" s="11" t="s">
@@ -8239,11 +8179,11 @@
         <v>51</v>
       </c>
       <c r="H186" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I186" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J186" s="11" t="s">
@@ -8258,7 +8198,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__13Y</v>
       </c>
       <c r="B187" s="11" t="s">
@@ -8268,7 +8208,7 @@
         <v>17</v>
       </c>
       <c r="D187" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E187" s="11" t="s">
@@ -8281,11 +8221,11 @@
         <v>51</v>
       </c>
       <c r="H187" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I187" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J187" s="11" t="s">
@@ -8300,7 +8240,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__14Y</v>
       </c>
       <c r="B188" s="11" t="s">
@@ -8310,7 +8250,7 @@
         <v>17</v>
       </c>
       <c r="D188" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E188" s="11" t="s">
@@ -8323,11 +8263,11 @@
         <v>51</v>
       </c>
       <c r="H188" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I188" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J188" s="11" t="s">
@@ -8342,7 +8282,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__15Y</v>
       </c>
       <c r="B189" s="11" t="s">
@@ -8352,7 +8292,7 @@
         <v>17</v>
       </c>
       <c r="D189" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E189" s="11" t="s">
@@ -8365,11 +8305,11 @@
         <v>51</v>
       </c>
       <c r="H189" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I189" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J189" s="11" t="s">
@@ -8384,7 +8324,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__16Y</v>
       </c>
       <c r="B190" s="11" t="s">
@@ -8394,7 +8334,7 @@
         <v>17</v>
       </c>
       <c r="D190" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E190" s="11" t="s">
@@ -8407,11 +8347,11 @@
         <v>51</v>
       </c>
       <c r="H190" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I190" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J190" s="11" t="s">
@@ -8426,7 +8366,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__17Y</v>
       </c>
       <c r="B191" s="11" t="s">
@@ -8436,7 +8376,7 @@
         <v>17</v>
       </c>
       <c r="D191" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E191" s="11" t="s">
@@ -8449,11 +8389,11 @@
         <v>51</v>
       </c>
       <c r="H191" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I191" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J191" s="11" t="s">
@@ -8468,7 +8408,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__18Y</v>
       </c>
       <c r="B192" s="11" t="s">
@@ -8478,7 +8418,7 @@
         <v>17</v>
       </c>
       <c r="D192" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E192" s="11" t="s">
@@ -8491,11 +8431,11 @@
         <v>51</v>
       </c>
       <c r="H192" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I192" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J192" s="11" t="s">
@@ -8510,7 +8450,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__19Y</v>
       </c>
       <c r="B193" s="11" t="s">
@@ -8520,7 +8460,7 @@
         <v>17</v>
       </c>
       <c r="D193" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E193" s="11" t="s">
@@ -8533,11 +8473,11 @@
         <v>51</v>
       </c>
       <c r="H193" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I193" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J193" s="11" t="s">
@@ -8552,7 +8492,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__20Y</v>
       </c>
       <c r="B194" s="11" t="s">
@@ -8562,7 +8502,7 @@
         <v>17</v>
       </c>
       <c r="D194" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E194" s="11" t="s">
@@ -8575,11 +8515,11 @@
         <v>51</v>
       </c>
       <c r="H194" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I194" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J194" s="11" t="s">
@@ -8594,7 +8534,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__25Y</v>
       </c>
       <c r="B195" s="11" t="s">
@@ -8604,7 +8544,7 @@
         <v>17</v>
       </c>
       <c r="D195" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E195" s="11" t="s">
@@ -8617,11 +8557,11 @@
         <v>51</v>
       </c>
       <c r="H195" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I195" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J195" s="11" t="s">
@@ -8636,7 +8576,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__30Y</v>
       </c>
       <c r="B196" s="11" t="s">
@@ -8646,7 +8586,7 @@
         <v>17</v>
       </c>
       <c r="D196" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E196" s="11" t="s">
@@ -8659,11 +8599,11 @@
         <v>51</v>
       </c>
       <c r="H196" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I196" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J196" s="11" t="s">
@@ -8678,7 +8618,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__35Y</v>
       </c>
       <c r="B197" s="11" t="s">
@@ -8688,7 +8628,7 @@
         <v>17</v>
       </c>
       <c r="D197" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E197" s="11" t="s">
@@ -8701,11 +8641,11 @@
         <v>51</v>
       </c>
       <c r="H197" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I197" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J197" s="11" t="s">
@@ -8720,7 +8660,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__40Y</v>
       </c>
       <c r="B198" s="11" t="s">
@@ -8730,7 +8670,7 @@
         <v>17</v>
       </c>
       <c r="D198" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E198" s="11" t="s">
@@ -8743,11 +8683,11 @@
         <v>51</v>
       </c>
       <c r="H198" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I198" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J198" s="11" t="s">
@@ -8762,7 +8702,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__45Y</v>
       </c>
       <c r="B199" s="11" t="s">
@@ -8772,7 +8712,7 @@
         <v>17</v>
       </c>
       <c r="D199" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E199" s="11" t="s">
@@ -8785,11 +8725,11 @@
         <v>51</v>
       </c>
       <c r="H199" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I199" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J199" s="11" t="s">
@@ -8804,7 +8744,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__50Y</v>
       </c>
       <c r="B200" s="11" t="s">
@@ -8814,7 +8754,7 @@
         <v>17</v>
       </c>
       <c r="D200" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E200" s="11" t="s">
@@ -8827,11 +8767,11 @@
         <v>51</v>
       </c>
       <c r="H200" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I200" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J200" s="11" t="s">
@@ -8846,7 +8786,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__60Y</v>
       </c>
       <c r="B201" s="11" t="s">
@@ -8856,7 +8796,7 @@
         <v>17</v>
       </c>
       <c r="D201" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E201" s="11" t="s">
@@ -8869,11 +8809,11 @@
         <v>51</v>
       </c>
       <c r="H201" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I201" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J201" s="11" t="s">
@@ -8888,7 +8828,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>GBPLIBOR3M__Swap__70Y</v>
       </c>
       <c r="B202" s="11" t="s">
@@ -8898,7 +8838,7 @@
         <v>17</v>
       </c>
       <c r="D202" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="E202" s="11" t="s">
@@ -8911,11 +8851,11 @@
         <v>51</v>
       </c>
       <c r="H202" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="I202" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>GBPLIBOR3M</v>
       </c>
       <c r="J202" s="11" t="s">
@@ -8969,7 +8909,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="9" t="str">
-        <f t="shared" ref="A204:A235" si="19">CONCATENATE(B204,"__TermDeposit__",K204)</f>
+        <f t="shared" ref="A204:A235" si="17">CONCATENATE(B204,"__TermDeposit__",K204)</f>
         <v>GBP-GBPSONIA__TermDeposit__1M</v>
       </c>
       <c r="B204" s="9" t="s">
@@ -9008,7 +8948,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__2M</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -9047,7 +8987,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__3M</v>
       </c>
       <c r="B206" s="9" t="s">
@@ -9086,7 +9026,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__6M</v>
       </c>
       <c r="B207" s="9" t="s">
@@ -9125,7 +9065,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__1Y</v>
       </c>
       <c r="B208" s="9" t="s">
@@ -9164,7 +9104,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__2Y</v>
       </c>
       <c r="B209" s="9" t="s">
@@ -9203,7 +9143,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__3Y</v>
       </c>
       <c r="B210" s="9" t="s">
@@ -9242,7 +9182,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__4Y</v>
       </c>
       <c r="B211" s="9" t="s">
@@ -9281,7 +9221,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__5Y</v>
       </c>
       <c r="B212" s="9" t="s">
@@ -9320,7 +9260,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__6Y</v>
       </c>
       <c r="B213" s="9" t="s">
@@ -9359,7 +9299,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__7Y</v>
       </c>
       <c r="B214" s="9" t="s">
@@ -9398,7 +9338,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__8Y</v>
       </c>
       <c r="B215" s="9" t="s">
@@ -9437,7 +9377,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__9Y</v>
       </c>
       <c r="B216" s="9" t="s">
@@ -9476,7 +9416,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__10Y</v>
       </c>
       <c r="B217" s="9" t="s">
@@ -9515,7 +9455,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__11Y</v>
       </c>
       <c r="B218" s="9" t="s">
@@ -9554,7 +9494,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__12Y</v>
       </c>
       <c r="B219" s="9" t="s">
@@ -9593,7 +9533,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__13Y</v>
       </c>
       <c r="B220" s="9" t="s">
@@ -9632,7 +9572,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__14Y</v>
       </c>
       <c r="B221" s="9" t="s">
@@ -9671,7 +9611,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__15Y</v>
       </c>
       <c r="B222" s="9" t="s">
@@ -9710,7 +9650,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__16Y</v>
       </c>
       <c r="B223" s="9" t="s">
@@ -9749,7 +9689,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__17Y</v>
       </c>
       <c r="B224" s="9" t="s">
@@ -9788,7 +9728,7 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__18Y</v>
       </c>
       <c r="B225" s="9" t="s">
@@ -9827,7 +9767,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__19Y</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -9866,7 +9806,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__20Y</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -9905,7 +9845,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__25Y</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -9944,7 +9884,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__30Y</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -9983,7 +9923,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__35Y</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -10022,7 +9962,7 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__40Y</v>
       </c>
       <c r="B231" s="9" t="s">
@@ -10061,7 +10001,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="A232" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__45Y</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -10100,7 +10040,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__50Y</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -10139,7 +10079,7 @@
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__60Y</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -10178,7 +10118,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>GBP-GBPSONIA__TermDeposit__70Y</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -10261,7 +10201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
